--- a/DATA_goal/Junction_Flooding_482.xlsx
+++ b/DATA_goal/Junction_Flooding_482.xlsx
@@ -446,34 +446,34 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44813.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44813.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.95</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.52</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.99</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.3</v>
+        <v>22.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.1</v>
+        <v>100.95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.77</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.91</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44813.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.9</v>
+        <v>18.97</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.16</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.54</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.76</v>
+        <v>27.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.11</v>
+        <v>101.14</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2</v>
+        <v>19.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.82</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.62</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.48</v>
+        <v>24.77</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44813.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_482.xlsx
+++ b/DATA_goal/Junction_Flooding_482.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44813.54861111111</v>
+        <v>45163.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44813.55555555555</v>
+        <v>45163.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.3</v>
+        <v>3.564</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.95</v>
+        <v>2.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.518</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.52</v>
+        <v>7.99</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.99</v>
+        <v>6.085</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.66</v>
+        <v>2.264</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.98</v>
+        <v>11.81</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.36</v>
+        <v>4.424</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.87</v>
+        <v>2.449</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>2.653</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.56</v>
+        <v>3.151</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.73</v>
+        <v>3.72</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.31</v>
+        <v>1.496</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.64</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.55</v>
+        <v>3.866</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.65</v>
+        <v>2.695</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.178</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.461</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>100.95</v>
+        <v>38.472</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.77</v>
+        <v>8.539</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.93</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.58</v>
+        <v>5.289</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.72</v>
+        <v>3.238</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.77</v>
+        <v>7.088</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.73</v>
+        <v>2.153</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.77</v>
+        <v>2.557</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.71</v>
+        <v>3.083</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.98</v>
+        <v>4.01</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.91</v>
+        <v>11.415</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.46</v>
+        <v>1.859</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.89</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44813.5625</v>
+        <v>45163.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>1.725</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.97</v>
+        <v>1.312</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.97</v>
+        <v>3.988</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.16</v>
+        <v>2.875</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.54</v>
+        <v>0.966</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.58</v>
+        <v>7.24</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.56</v>
+        <v>2.156</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.94</v>
+        <v>1.359</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.97</v>
+        <v>1.177</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.74</v>
+        <v>1.557</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.93</v>
+        <v>1.913</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.3</v>
+        <v>0.867</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.81</v>
+        <v>1.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.53</v>
+        <v>1.853</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.73</v>
+        <v>1.423</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.286</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.14</v>
+        <v>15.585</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.98</v>
+        <v>4.348</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.82</v>
+        <v>1.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.62</v>
+        <v>2.614</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.87</v>
+        <v>1.695</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.211</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.65</v>
+        <v>4.259</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.78</v>
+        <v>1.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.88</v>
+        <v>1.388</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.81</v>
+        <v>1.652</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>2.064</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.77</v>
+        <v>7.111</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.56</v>
+        <v>0.987</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.01</v>
+        <v>1.531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44813.56944444445</v>
+        <v>45163.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.46</v>
+        <v>6.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.54</v>
+        <v>4.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.5</v>
+        <v>13.47</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.27</v>
+        <v>10.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.8</v>
+        <v>4.49</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.52</v>
+        <v>16.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.94</v>
+        <v>7.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.12</v>
+        <v>3.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.96</v>
+        <v>4.75</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.53</v>
+        <v>5.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.38</v>
+        <v>5.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.51</v>
+        <v>1.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.26</v>
+        <v>4.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.53</v>
+        <v>6.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.46</v>
+        <v>67.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.53</v>
+        <v>13.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.56</v>
+        <v>4.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.24</v>
+        <v>8.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.41</v>
+        <v>4.97</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.87</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.2</v>
+        <v>3.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.89</v>
+        <v>3.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.1</v>
+        <v>4.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.08</v>
+        <v>5.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.69</v>
+        <v>14.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>2.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44813.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.31</v>
+        <v>5.48</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_482.xlsx
+++ b/DATA_goal/Junction_Flooding_482.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,28 +446,28 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45163.50694444445</v>
+        <v>44813.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45163.51388888889</v>
+        <v>44813.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.564</v>
+        <v>10.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.73</v>
+        <v>6.953</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.518</v>
+        <v>0.143</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.99</v>
+        <v>18.519</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.085</v>
+        <v>15.989</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.264</v>
+        <v>7.663</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.81</v>
+        <v>22.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.424</v>
+        <v>10.356</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.449</v>
+        <v>4.87</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.653</v>
+        <v>8.301</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.151</v>
+        <v>7.564</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.72</v>
+        <v>7.729</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.496</v>
+        <v>2.306</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.008</v>
+        <v>6.637</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.866</v>
+        <v>10.548</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.695</v>
+        <v>5.655</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.178</v>
+        <v>0.448</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.461</v>
+        <v>0.176</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.472</v>
+        <v>100.95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.539</v>
+        <v>19.767</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.776</v>
+        <v>6.928</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.289</v>
+        <v>13.576</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.238</v>
+        <v>6.724</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.424</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.088</v>
+        <v>11.775</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.153</v>
+        <v>5.733</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.557</v>
+        <v>4.767</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.083</v>
+        <v>5.712</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.01</v>
+        <v>8.978</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.415</v>
+        <v>19.905</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.859</v>
+        <v>3.464</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.17</v>
+        <v>7.894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45163.52083333334</v>
+        <v>44813.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.725</v>
+        <v>9.865</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.312</v>
+        <v>6.967</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.164</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.988</v>
+        <v>18.97</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.875</v>
+        <v>16.161</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.966</v>
+        <v>7.54</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.24</v>
+        <v>27.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.156</v>
+        <v>10.563</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.359</v>
+        <v>4.935</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.177</v>
+        <v>7.968</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.557</v>
+        <v>7.743</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.913</v>
+        <v>7.934</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.867</v>
+        <v>2.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.504</v>
+        <v>6.814</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.853</v>
+        <v>10.531</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.423</v>
+        <v>5.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.366</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.286</v>
+        <v>0.176</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.585</v>
+        <v>101.142</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.348</v>
+        <v>19.975</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.388</v>
+        <v>6.816</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.614</v>
+        <v>13.623</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.695</v>
+        <v>6.868</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.211</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.259</v>
+        <v>13.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.02</v>
+        <v>5.784</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.388</v>
+        <v>4.881</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.652</v>
+        <v>5.812</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.064</v>
+        <v>8.795</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.111</v>
+        <v>24.766</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.987</v>
+        <v>3.556</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.531</v>
+        <v>8.015000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45163.52777777778</v>
+        <v>44813.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.09</v>
+        <v>2.459</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.58</v>
+        <v>1.544</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.002</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.47</v>
+        <v>3.496</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.78</v>
+        <v>3.272</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.49</v>
+        <v>1.796</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.41</v>
+        <v>10.523</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.43</v>
+        <v>1.944</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.6</v>
+        <v>1.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.75</v>
+        <v>1.958</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.37</v>
+        <v>1.532</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.88</v>
+        <v>1.378</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.86</v>
+        <v>0.505</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.89</v>
+        <v>1.264</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.67</v>
+        <v>2.535</v>
       </c>
       <c r="Q5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.535</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.555</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.242</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.407</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.868</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>9.692</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.572</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44813.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>4.2</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>67.02</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>5.48</v>
+      <c r="AG6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_482.xlsx
+++ b/DATA_goal/Junction_Flooding_482.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,28 +446,28 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44813.54861111111</v>
+        <v>45163.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44813.55555555555</v>
+        <v>45163.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.3</v>
+        <v>3.564</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.953</v>
+        <v>2.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.143</v>
+        <v>0.518</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.519</v>
+        <v>7.99</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.989</v>
+        <v>6.085</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.663</v>
+        <v>2.264</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.98</v>
+        <v>11.81</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.356</v>
+        <v>4.424</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.87</v>
+        <v>2.449</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.301</v>
+        <v>2.653</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.564</v>
+        <v>3.151</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.729</v>
+        <v>3.72</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.306</v>
+        <v>1.496</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.637</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.548</v>
+        <v>3.866</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.655</v>
+        <v>2.695</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.448</v>
+        <v>0.178</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.176</v>
+        <v>0.461</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>100.95</v>
+        <v>38.472</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.767</v>
+        <v>8.539</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.928</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.576</v>
+        <v>5.289</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.724</v>
+        <v>3.238</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.424</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.775</v>
+        <v>7.088</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.733</v>
+        <v>2.153</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.767</v>
+        <v>2.557</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.712</v>
+        <v>3.083</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.978</v>
+        <v>4.01</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.905</v>
+        <v>11.415</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.464</v>
+        <v>1.859</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.894</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44813.5625</v>
+        <v>45163.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.865</v>
+        <v>1.725</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.967</v>
+        <v>1.312</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.164</v>
+        <v>0.31</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.97</v>
+        <v>3.988</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.161</v>
+        <v>2.875</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.54</v>
+        <v>0.966</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.58</v>
+        <v>7.24</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.563</v>
+        <v>2.156</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.935</v>
+        <v>1.359</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.968</v>
+        <v>1.177</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.743</v>
+        <v>1.557</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.934</v>
+        <v>1.913</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.3</v>
+        <v>0.867</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.814</v>
+        <v>1.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.531</v>
+        <v>1.853</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.73</v>
+        <v>1.423</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.366</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.176</v>
+        <v>0.286</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.142</v>
+        <v>15.585</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.975</v>
+        <v>4.348</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.816</v>
+        <v>1.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.623</v>
+        <v>2.614</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.868</v>
+        <v>1.695</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.211</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.65</v>
+        <v>4.259</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.784</v>
+        <v>1.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.881</v>
+        <v>1.388</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.812</v>
+        <v>1.652</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.795</v>
+        <v>2.064</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.766</v>
+        <v>7.111</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.556</v>
+        <v>0.987</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.015000000000001</v>
+        <v>1.531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44813.56944444445</v>
+        <v>45163.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.459</v>
+        <v>6.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.544</v>
+        <v>4.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.002</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.496</v>
+        <v>13.47</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.272</v>
+        <v>10.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.796</v>
+        <v>4.49</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.523</v>
+        <v>16.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.944</v>
+        <v>7.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.12</v>
+        <v>3.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.958</v>
+        <v>4.75</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.532</v>
+        <v>5.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.378</v>
+        <v>5.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.505</v>
+        <v>1.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.264</v>
+        <v>4.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.535</v>
+        <v>6.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.239</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.004</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.46</v>
+        <v>67.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.535</v>
+        <v>13.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.555</v>
+        <v>4.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.242</v>
+        <v>8.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.407</v>
+        <v>4.97</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.197</v>
+        <v>0.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.868</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.204</v>
+        <v>3.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.894</v>
+        <v>3.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.095</v>
+        <v>4.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.082</v>
+        <v>5.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.692</v>
+        <v>14.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.635</v>
+        <v>2.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.572</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44813.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.31</v>
+        <v>5.48</v>
       </c>
     </row>
   </sheetData>
